--- a/doc/数据库字段.xlsx
+++ b/doc/数据库字段.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\WebstormProjects\tickets_wx_lp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58C40B6-8E48-45EC-A109-04D4166C5F35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8271DA5D-F3E8-44B0-A367-3503CFEB8972}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="765" windowWidth="16155" windowHeight="9375" xr2:uid="{BE31D435-E67B-4AA7-9520-3D34152D436E}"/>
+    <workbookView xWindow="945" yWindow="60" windowWidth="18480" windowHeight="10710" activeTab="4" xr2:uid="{BE31D435-E67B-4AA7-9520-3D34152D436E}"/>
   </bookViews>
   <sheets>
-    <sheet name="项目库存表" sheetId="3" r:id="rId1"/>
-    <sheet name="增发记录表" sheetId="1" r:id="rId2"/>
-    <sheet name="领用记录表" sheetId="2" r:id="rId3"/>
-    <sheet name="每日统计表" sheetId="5" r:id="rId4"/>
+    <sheet name="说明" sheetId="8" r:id="rId1"/>
+    <sheet name="用户表" sheetId="7" r:id="rId2"/>
+    <sheet name="票券表" sheetId="3" r:id="rId3"/>
+    <sheet name="增发记录表" sheetId="1" r:id="rId4"/>
+    <sheet name="月统计表" sheetId="5" r:id="rId5"/>
+    <sheet name="系统状态表(可不需要)" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,8 +34,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>sam</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{5966C44C-FBDF-4392-823B-AA6421F90DA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+会出现已领取但还未使用及作废的票券</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="87">
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>项目类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,34 +85,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剩余库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增发数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增发次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后领取时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后增发时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可领取日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>票券编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,18 +97,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>领取人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>领取时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,19 +141,288 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ObjectID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目编号</t>
+    <t>过期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增发人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增发编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAISER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAISE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVERDUE TIME</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100:羽毛球
+101:篮球
+102:足球
+103:游泳
+104:瑜伽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGE010020190501345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default:未领取
+valid:已领取
+verified:已使用
+expired:已过期
+invalid:已作废</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oZ6qW5ATS3-hcugcJIRaglQq-QNE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>2019-05-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增发前库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRE_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAISE_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96c1cbbe5cd2432d0dff8fac4115563c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100:人事部
+101:财务部
+102:技术部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>记录编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期领用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期作废</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期实际使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结转状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURCH_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPIRY_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPIRY_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SURPLUS_COUNT</t>
+  </si>
+  <si>
+    <t>INITIAL_COUNT</t>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天更新一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一个统计月结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MONTH_END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一个统计月的末期库存，不存在则为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否按照已统计周做统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记此条记录是否为已结束统计的记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +445,35 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,11 +498,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,62 +851,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE459C2-A199-4C11-9AA1-2FE0129FC1A9}">
-  <dimension ref="A2:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D6C0D1-485D-42F1-A420-B720288F6A9C}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>79</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -579,34 +886,575 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B9BFBF-3BBC-43FB-B7D5-B1FB65854BA0}">
-  <dimension ref="A2:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09055FF-3AE9-4FB7-BB68-F4D56DF02FEE}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="39.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="I5" s="1">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE459C2-A199-4C11-9AA1-2FE0129FC1A9}">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="39.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3">
+        <v>100</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="8">
+        <v>43586.396018518521</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="8">
+        <v>43605.439768518518</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -615,118 +1463,558 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E189650-8358-4090-840D-1BBA5A0C5201}">
-  <dimension ref="A2:C9"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B9BFBF-3BBC-43FB-B7D5-B1FB65854BA0}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="45.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="I4" s="8">
+        <v>43586.396018518521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="I5" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D45CC0C-8B94-4F95-8119-8760CD48C967}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="11">
+        <v>43602.000694444447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>B9&amp;"="&amp;B10&amp;"+"&amp;B11</f>
+        <v>本期领用=本期作废+本期实际使用</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>B11&amp;"="&amp;B7&amp;"+"&amp;B8&amp;"-"&amp;B9</f>
+        <v>本期实际使用=期初库存+本期增加-本期领用</v>
+      </c>
+      <c r="H11" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A26140-FF27-419E-9D0A-10246E559B08}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D45CC0C-8B94-4F95-8119-8760CD48C967}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/数据库字段.xlsx
+++ b/doc/数据库字段.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\WebstormProjects\tickets_wx_lp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8271DA5D-F3E8-44B0-A367-3503CFEB8972}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603D8D1A-A32C-45C4-9C94-8DD4D682F7BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="60" windowWidth="18480" windowHeight="10710" activeTab="4" xr2:uid="{BE31D435-E67B-4AA7-9520-3D34152D436E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{BE31D435-E67B-4AA7-9520-3D34152D436E}"/>
   </bookViews>
   <sheets>
-    <sheet name="说明" sheetId="8" r:id="rId1"/>
-    <sheet name="用户表" sheetId="7" r:id="rId2"/>
+    <sheet name="说明" sheetId="1" r:id="rId1"/>
+    <sheet name="用户表" sheetId="2" r:id="rId2"/>
     <sheet name="票券表" sheetId="3" r:id="rId3"/>
-    <sheet name="增发记录表" sheetId="1" r:id="rId4"/>
+    <sheet name="增发记录表" sheetId="4" r:id="rId4"/>
     <sheet name="月统计表" sheetId="5" r:id="rId5"/>
-    <sheet name="系统状态表(可不需要)" sheetId="9" r:id="rId6"/>
+    <sheet name="系统状态表(可不需要)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="sam - 个人视图" guid="{B31A0A8F-B372-4DA7-9247-D2BECF9C2404}" mergeInterval="0" personalView="1" xWindow="130" yWindow="14" windowWidth="1232" windowHeight="714" activeSheetId="4"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +43,7 @@
     <author>sam</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{5966C44C-FBDF-4392-823B-AA6421F90DA4}">
+    <comment ref="G10" authorId="0" guid="{4F91AA6D-A703-4CC8-95B9-90469E63753A}" shapeId="0" xr:uid="{5966C44C-FBDF-4392-823B-AA6421F90DA4}">
       <text>
         <r>
           <rPr>
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,9 +186,6 @@
   <si>
     <t>RAISE_TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OVERDUE TIME</t>
   </si>
   <si>
     <t>序号</t>
@@ -423,6 +423,10 @@
   </si>
   <si>
     <t>标记此条记录是否为已结束统计的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVERDUE_TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,6 +557,168 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{99E35E9C-A6A9-4E34-B7AA-64C6103E3F72}" diskRevisions="1" revisionId="5" version="3">
+  <header guid="{F4011EFD-43D6-4524-B898-3C8DCB49076E}" dateTime="2019-05-28T15:50:08" maxSheetId="7" userName="sam" r:id="rId1">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7982234F-C2B5-4FD2-8A40-C43D25440CBE}" dateTime="2019-05-28T15:50:20" maxSheetId="7" userName="sam" r:id="rId2" minRId="1" maxRId="4">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{99E35E9C-A6A9-4E34-B7AA-64C6103E3F72}" dateTime="2019-05-28T18:31:02" maxSheetId="7" userName="sam" r:id="rId3" minRId="5">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1" sId="4" ref="A3:XFD3" action="deleteRow">
+    <rfmt sheetId="4" xfDxf="1" sqref="A3:XFD3" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="14"/>
+          <name val="宋体"/>
+          <family val="3"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center"/>
+      </dxf>
+    </rfmt>
+    <rcc rId="0" sId="4">
+      <nc r="A3">
+        <v>2</v>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="B3" t="inlineStr">
+        <is>
+          <t>项目类型</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="C3" t="inlineStr">
+        <is>
+          <t>CLASS</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="D3" t="inlineStr">
+        <is>
+          <t>String</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="E3" t="inlineStr">
+        <is>
+          <t>**</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+    </rcc>
+    <rcc rId="0" sId="4" dxf="1">
+      <nc r="F3" t="inlineStr">
+        <is>
+          <t>100:羽毛球
+101:篮球
+102:足球
+103:游泳
+104:瑜伽</t>
+          <phoneticPr fontId="0" type="noConversion"/>
+        </is>
+      </nc>
+      <ndxf>
+        <alignment wrapText="1"/>
+      </ndxf>
+    </rcc>
+    <rcc rId="0" sId="4">
+      <nc r="I3">
+        <v>100</v>
+      </nc>
+    </rcc>
+  </rrc>
+  <rcc rId="2" sId="4">
+    <oc r="A3">
+      <v>3</v>
+    </oc>
+    <nc r="A3">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="4">
+    <oc r="A4">
+      <v>4</v>
+    </oc>
+    <nc r="A4">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="4">
+    <oc r="A5">
+      <v>5</v>
+    </oc>
+    <nc r="A5">
+      <v>4</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="5" sId="3">
+    <oc r="C10" t="inlineStr">
+      <is>
+        <t>OVERDUE TIME</t>
+      </is>
+    </oc>
+    <nc r="C10" t="inlineStr">
+      <is>
+        <t>OVERDUE_TIME</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{99E35E9C-A6A9-4E34-B7AA-64C6103E3F72}" name="sam" id="-868088802" dateTime="2019-05-28T15:50:08"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -868,18 +1034,24 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B31A0A8F-B372-4DA7-9247-D2BECF9C2404}">
+      <selection activeCell="B22" sqref="B22"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -910,28 +1082,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -939,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -951,7 +1123,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -959,20 +1131,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2"/>
       <c r="I3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -980,16 +1152,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -998,19 +1170,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2"/>
       <c r="I5" s="1">
@@ -1018,6 +1190,13 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B31A0A8F-B372-4DA7-9247-D2BECF9C2404}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1027,9 +1206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE459C2-A199-4C11-9AA1-2FE0129FC1A9}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
@@ -1049,28 +1228,28 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1090,7 +1269,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="93.75" x14ac:dyDescent="0.2">
@@ -1104,13 +1283,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1133,15 +1312,15 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -1165,7 +1344,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -1180,7 +1359,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1213,7 +1392,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -1228,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="b">
         <v>0</v>
@@ -1251,7 +1430,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -1263,7 +1442,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
@@ -1277,10 +1456,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="b">
         <v>0</v>
@@ -1333,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="b">
         <v>0</v>
@@ -1457,18 +1636,26 @@
       <c r="J21" s="2"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B31A0A8F-B372-4DA7-9247-D2BECF9C2404}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B9BFBF-3BBC-43FB-B7D5-B1FB65854BA0}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
@@ -1487,13 +1674,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1502,13 +1689,13 @@
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1528,31 +1715,29 @@
         <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="93.75" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="1">
-        <v>100</v>
+      <c r="I3" s="8">
+        <v>43586.396018518521</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1560,68 +1745,53 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="I4" s="8">
-        <v>43586.396018518521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="I4" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="I5" s="1">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="I5" s="2">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B31A0A8F-B372-4DA7-9247-D2BECF9C2404}">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1629,7 +1799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D45CC0C-8B94-4F95-8119-8760CD48C967}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1648,13 +1818,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1663,13 +1833,13 @@
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1677,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -1689,7 +1859,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="93.75" x14ac:dyDescent="0.2">
@@ -1709,7 +1879,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1">
         <v>100</v>
@@ -1720,10 +1890,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -1732,7 +1902,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1740,19 +1910,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" s="11">
         <v>43602.000694444447</v>
@@ -1763,19 +1933,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H6" s="11" t="b">
         <v>0</v>
@@ -1786,20 +1956,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2">
         <v>230</v>
@@ -1810,13 +1980,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -1830,13 +2000,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -1854,20 +2024,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="1">
         <v>1783</v>
@@ -1878,13 +2048,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1902,13 +2072,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -1918,6 +2088,12 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B31A0A8F-B372-4DA7-9247-D2BECF9C2404}">
+      <selection activeCell="G15" sqref="G15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1945,13 +2121,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1960,13 +2136,13 @@
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -1974,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -1988,7 +2164,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
@@ -1996,10 +2172,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -2010,10 +2186,16 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B31A0A8F-B372-4DA7-9247-D2BECF9C2404}">
+      <selection activeCell="G18" sqref="G18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/数据库字段.xlsx
+++ b/doc/数据库字段.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\WebstormProjects\tickets_wx_lp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603D8D1A-A32C-45C4-9C94-8DD4D682F7BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215F496B-3EC9-4207-A9FD-6A753200B7FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{BE31D435-E67B-4AA7-9520-3D34152D436E}"/>
   </bookViews>
@@ -715,10 +715,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{99E35E9C-A6A9-4E34-B7AA-64C6103E3F72}" name="sam" id="-868088802" dateTime="2019-05-28T15:50:08"/>
-</users>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1207,8 +1205,8 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
